--- a/rozpočet.xlsx
+++ b/rozpočet.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Documents\projects\Stavba-Dronu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92521771-500D-4FC1-A5DA-6D9069E4943E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2ED601-B207-468D-B081-821CC91F2D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F9A090E1-2DEC-489B-9C09-F94B184CFA73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9A090E1-2DEC-489B-9C09-F94B184CFA73}"/>
   </bookViews>
   <sheets>
     <sheet name="Rozpočet" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rozpočet!$B$4:$G$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="7" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="91">
   <si>
     <t>Výdaje</t>
   </si>
@@ -297,6 +300,21 @@
   </si>
   <si>
     <t>Nástroje</t>
+  </si>
+  <si>
+    <t>Popisky řádků</t>
+  </si>
+  <si>
+    <t>Celkový součet</t>
+  </si>
+  <si>
+    <t>Součet z Cena (CZK)</t>
+  </si>
+  <si>
+    <t>Ceny dle využití</t>
+  </si>
+  <si>
+    <t>Ceny dle kategorie pro dron</t>
   </si>
 </sst>
 </file>
@@ -306,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Kč&quot;_-;\-* #,##0.00\ &quot;Kč&quot;_-;_-* &quot;-&quot;??\ &quot;Kč&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +343,14 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -539,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -547,38 +573,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;Kč&quot;_-;\-* #,##0.00\ &quot;Kč&quot;_-;_-* &quot;-&quot;??\ &quot;Kč&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;Kč&quot;_-;\-* #,##0.00\ &quot;Kč&quot;_-;_-* &quot;-&quot;??\ &quot;Kč&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;Kč&quot;_-;\-* #,##0.00\ &quot;Kč&quot;_-;_-* &quot;-&quot;??\ &quot;Kč&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -590,13 +639,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -621,6 +663,578 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Filip Viktor Hanzlik" refreshedDate="44806.860102777777" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="48" xr:uid="{5FCED397-C94B-42B5-B85B-6C83AFA23A0B}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B4:G52" sheet="Rozpočet"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Název" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Množství" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Využití" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Dron"/>
+        <s v="Nástroje"/>
+        <s v="Bezpečnost"/>
+        <s v="Náhradní"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Kategorie" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Struktura"/>
+        <s v="ESC + Motory"/>
+        <s v="Baterie"/>
+        <s v="Elektronika"/>
+        <s v="Rozvod"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Poznámky" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Cena (CZK)" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.3" maxValue="2108"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="48">
+  <r>
+    <s v="srouby M3x8"/>
+    <s v="10 ks"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="207"/>
+  </r>
+  <r>
+    <s v="srouby M3x8"/>
+    <s v="6 ks"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="87"/>
+  </r>
+  <r>
+    <s v="XA2212/1400"/>
+    <s v="5 ks"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Brusheless motors"/>
+    <n v="1300"/>
+  </r>
+  <r>
+    <s v="JST-XH/JST-EH 3S"/>
+    <s v="2 ks"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Kabely"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <s v="modul ultrazvukoveho mereni"/>
+    <s v="1 ks"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <n v="85"/>
+  </r>
+  <r>
+    <s v="rezistor 1k"/>
+    <s v="19 ks"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <n v="29.62"/>
+  </r>
+  <r>
+    <s v="rezistor1k5"/>
+    <s v="19 ks"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <n v="29.62"/>
+  </r>
+  <r>
+    <s v="kolikova lista 1x40"/>
+    <s v="2 ks"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <n v="14.2"/>
+  </r>
+  <r>
+    <s v="stahovaci pasek 203x3.2 "/>
+    <s v="12 ks"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="26.4"/>
+  </r>
+  <r>
+    <s v="lipo 4500mAh/11.1V 40/80C"/>
+    <s v="2 ks"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <n v="2108"/>
+  </r>
+  <r>
+    <s v="EC5 konektor samice "/>
+    <s v="2 ks"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <n v="118"/>
+  </r>
+  <r>
+    <s v="smrstovaci buzirka K32-4"/>
+    <s v="2 m"/>
+    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <n v="35.799999999999997"/>
+  </r>
+  <r>
+    <s v="smrsotvaci buzirka K32-7"/>
+    <s v="1 m"/>
+    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <n v="25"/>
+  </r>
+  <r>
+    <s v="kabel SiF 1x4mm2 cerveny"/>
+    <s v="5 m"/>
+    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <n v="185"/>
+  </r>
+  <r>
+    <s v="stahovaci pasek 100x2,5"/>
+    <s v="30 ks"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="25.34"/>
+  </r>
+  <r>
+    <s v="kabel SiF 16AWG"/>
+    <s v="0,5 m"/>
+    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <n v="55"/>
+  </r>
+  <r>
+    <s v="kabel SiF 20AWG cerveny"/>
+    <s v="1 m"/>
+    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <n v="59"/>
+  </r>
+  <r>
+    <s v="kabel SiF 20AWG modry"/>
+    <s v="1 m"/>
+    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <n v="59"/>
+  </r>
+  <r>
+    <s v="smrsotvaci buzirka 2mm"/>
+    <s v="0.25 m"/>
+    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <n v="13"/>
+  </r>
+  <r>
+    <s v="EC5 konektor samec"/>
+    <s v="3 ks"/>
+    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <n v="177"/>
+  </r>
+  <r>
+    <s v="nabijeci kabel s bananky EC5"/>
+    <s v="1 ks"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <n v="209"/>
+  </r>
+  <r>
+    <s v="kabel SifF 16AWG  cerveny"/>
+    <s v="0,5 m"/>
+    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <n v="55"/>
+  </r>
+  <r>
+    <s v="matice M3"/>
+    <s v="10 ks"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="30"/>
+  </r>
+  <r>
+    <s v="G3.5 2xsamec+2xsamicka"/>
+    <s v="15 ks"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <n v="405"/>
+  </r>
+  <r>
+    <s v="sroub M3x50"/>
+    <s v="8 ks"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="112"/>
+  </r>
+  <r>
+    <s v="sroub M3x40"/>
+    <s v="20 ks"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="200"/>
+  </r>
+  <r>
+    <s v="8030 unasec vrtule 3mm"/>
+    <s v="4 ks"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="212"/>
+  </r>
+  <r>
+    <s v="posuvny spinac ON-ON 3A/250A SL19-121"/>
+    <s v="2 ks"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <n v="56"/>
+  </r>
+  <r>
+    <s v="SiF 1x2.5mm2 cerveny"/>
+    <s v="5 m"/>
+    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <n v="130"/>
+  </r>
+  <r>
+    <s v="Graupner COPTER Prop 8x4 - vrtule"/>
+    <s v="4 ks"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="118"/>
+  </r>
+  <r>
+    <s v="softmount rubber grommet M3"/>
+    <s v="8 ks"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="78"/>
+  </r>
+  <r>
+    <s v="Arduino Nano V3.0"/>
+    <s v="1 ks"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <n v="616"/>
+  </r>
+  <r>
+    <s v="propojovaci vodice F/F"/>
+    <s v="50 ks"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <n v="152.5"/>
+  </r>
+  <r>
+    <s v="datovy kabel vention miniUSB"/>
+    <s v="0,5 m"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <n v="63"/>
+  </r>
+  <r>
+    <s v="prototypova deska plosnych spoju 50x70mm2"/>
+    <s v="9 ks"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <n v="81"/>
+  </r>
+  <r>
+    <s v="GY-521 MPU6050 gyroskop akcelerometr"/>
+    <s v="2 ks"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <n v="130"/>
+  </r>
+  <r>
+    <s v="kolikova lista 1x20"/>
+    <s v="1 ks"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <n v="5.3"/>
+  </r>
+  <r>
+    <s v="sroub M3X8"/>
+    <s v="12 ks"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="98"/>
+  </r>
+  <r>
+    <s v="SKY RC e680 nabijec 80W"/>
+    <s v="1 ks"/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <n v="1390"/>
+  </r>
+  <r>
+    <s v="lipo alarm"/>
+    <s v="2 ks"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+    <n v="198"/>
+  </r>
+  <r>
+    <s v="ochranny vak – velky"/>
+    <s v="1 ks"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+    <n v="325"/>
+  </r>
+  <r>
+    <s v="Lipo SAFE – ochranny vak  pro lipo sady 18x22cm"/>
+    <s v="1 ks"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+    <n v="249"/>
+  </r>
+  <r>
+    <s v="unasec vrtule M5x32 3mm "/>
+    <s v="3 ks"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <n v="447"/>
+  </r>
+  <r>
+    <s v="ESC 30A"/>
+    <s v="1 ks"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <n v="253"/>
+  </r>
+  <r>
+    <s v="nabijec Dynamite Prophet Sport mini 50W AC"/>
+    <s v="1 ks"/>
+    <x v="3"/>
+    <x v="2"/>
+    <m/>
+    <n v="999"/>
+  </r>
+  <r>
+    <s v="Graupner 3D prop 8x4.5"/>
+    <s v="4 ks"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <n v="99"/>
+  </r>
+  <r>
+    <s v="Graupner COPTER Prop 8x4"/>
+    <s v="4 ks"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <n v="118"/>
+  </r>
+  <r>
+    <s v="KAVAN ESC R-20B 20A BEC 5V 2A"/>
+    <s v="4 ks"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <n v="1516"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F387020C-9522-400C-9CA7-0D2436E4BC6C}" name="Kontingenční tabulka4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L6:M12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Součet z Cena (CZK)" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27B098C5-2607-4E2B-A4D4-94BF603373CF}" name="Kontingenční tabulka2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I4:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Součet z Cena (CZK)" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -920,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5441E188-CBD6-41D7-B87A-8EB9EBA11329}">
-  <dimension ref="B2:H53"/>
+  <dimension ref="B2:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,27 +1548,43 @@
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="I2" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="L2" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="26"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
@@ -973,8 +1603,20 @@
       <c r="G4" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>42</v>
       </c>
@@ -992,8 +1634,14 @@
         <v>207</v>
       </c>
       <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="13">
+        <v>7487.7800000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>42</v>
       </c>
@@ -1011,8 +1659,20 @@
         <v>87</v>
       </c>
       <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="13">
+        <v>772</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>43</v>
       </c>
@@ -1032,8 +1692,20 @@
         <v>1300</v>
       </c>
       <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="13">
+        <v>3432</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="13">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1053,8 +1725,20 @@
         <v>98</v>
       </c>
       <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="13">
+        <v>1390</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="13">
+        <v>1262.24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1072,8 +1756,20 @@
         <v>85</v>
       </c>
       <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="13">
+        <v>13081.78</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="13">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
@@ -1091,8 +1787,14 @@
         <v>29.62</v>
       </c>
       <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="13">
+        <v>793.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
@@ -1110,8 +1812,14 @@
         <v>29.62</v>
       </c>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="13">
+        <v>1193.74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>49</v>
       </c>
@@ -1129,8 +1837,14 @@
         <v>14.2</v>
       </c>
       <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L12" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="13">
+        <v>7487.78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>50</v>
       </c>
@@ -1149,7 +1863,7 @@
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>51</v>
       </c>
@@ -1169,7 +1883,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>52</v>
       </c>
@@ -1188,7 +1902,7 @@
       </c>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>53</v>
       </c>
@@ -1855,7 +2569,7 @@
       <c r="H50" s="13"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -1874,7 +2588,7 @@
       <c r="H51" s="13"/>
     </row>
     <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -1894,14 +2608,14 @@
       <c r="H52" s="13"/>
     </row>
     <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="23">
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22">
         <f>SUM(G5:G52)</f>
         <v>13081.78</v>
       </c>
@@ -1912,22 +2626,24 @@
       <sortCondition ref="D5:D53" customList="Dron,Bezpečnost,Náhradní"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:G3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="L2:M3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B52">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>VLOOKUP($B5, $B$6:$S$53, 3, FALSE)="DRON"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>VLOOKUP($B5, $B$6:$S$53, 3, FALSE)="Bezpečnost"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>VLOOKUP($B5, $B$6:$S$53, 3, FALSE)="Nástroje"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B52">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>VLOOKUP($B5, $B$6:$S$53, 3, FALSE)="Náhradní"</formula>
     </cfRule>
   </conditionalFormatting>
